--- a/medicine/Psychotrope/4-Fluoroamphétamine/4-Fluoroamphétamine.xlsx
+++ b/medicine/Psychotrope/4-Fluoroamphétamine/4-Fluoroamphétamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4-Fluoroamph%C3%A9tamine</t>
+          <t>4-Fluoroamphétamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La 4-fluoroamphétamine, appelée également 4-FA ou para-fluoroamphétamine (la position où se trouve le fluor est appelée position 4 ou para)  est une drogue de synthèse ayant des effets stimulants et empathogènes. Sa structure chimique est très proche de la molécule d'amphétamine, ne différant de celle-ci qu'avec la présence d'un atome de fluor en position 4 (para) du cycle phényle. Elle est aussi très proche de la 4-chloroamphétamine, une amphétamine hautement neurotoxique, ne différant de celle-ci qu'avec la présence d'un atome de chlore au lieu d'un atome de fluor.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4-Fluoroamph%C3%A9tamine</t>
+          <t>4-Fluoroamphétamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au même titre que l'amphétamine, 4-fluoroamphétamine agit en inhibant la recapture de la dopamine et de la noradrénaline dans le cerveau. Mais à la différence de l'amphétamine, la 4-fluoroamphétamine inhibe la recapture de la sérotonine de manière beaucoup plus prononcée. Le peu d'études faites sur ce composé suggèrent qu'elle n'a rien à voir avec ses analogues halogénées neurotoxiques : 4-chloroamphétamine, 4-bromoamphétamine et 4-iodoamphétamine. Elle a en effet une puissance moindre et ne provoque pas un épuisement des stocks de sérotonine.
 Il aurait pourtant été logique de penser que la 4-fluoroamphétamine soit la plus neurotoxique des amphétamines halogénées puisque la neurotoxicité croît en descendant la colonne des halogènes jusqu'au chlore. Mais ce n'est pas le cas, la 4-FA est différente des autres amphétamines halogénées. Sans doute cela est dû à la force de liaison entre l'atome de fluor et le cycle phényle et/ou une question de métabolisme.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4-Fluoroamph%C3%A9tamine</t>
+          <t>4-Fluoroamphétamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effets de 4-fluoroamphétamine sont semblables à ceux de la MDMA et à ceux des amphétamines :
 Diminution des sensations de faim et de fatigue ;
